--- a/templates/AutomationOrg/RSTK-9616-WO auto serialize from primary component.xlsx
+++ b/templates/AutomationOrg/RSTK-9616-WO auto serialize from primary component.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QA-Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\QA-automation\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A737D9-C243-4CAF-A01F-B68467121C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40A21D4-2EF8-4578-8B11-CA0D9C30387D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create WO" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>Site</t>
   </si>
@@ -111,6 +111,33 @@
   </si>
   <si>
     <t>Pro-child5</t>
+  </si>
+  <si>
+    <t>SY_ReceiptLoc</t>
+  </si>
+  <si>
+    <t>a8s5f000000PtAf</t>
+  </si>
+  <si>
+    <t>a9A5f000000YM1d</t>
+  </si>
+  <si>
+    <t>a9L5f000000se6a</t>
+  </si>
+  <si>
+    <t>Location Number</t>
+  </si>
+  <si>
+    <t>Location ID</t>
+  </si>
+  <si>
+    <t>SiteID</t>
+  </si>
+  <si>
+    <t>Labor Booking User</t>
+  </si>
+  <si>
+    <t>Background Processing</t>
   </si>
 </sst>
 </file>
@@ -443,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,13 +483,13 @@
     <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.109375" bestFit="1" customWidth="1"/>
@@ -474,7 +501,7 @@
     <col min="21" max="21" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -496,8 +523,23 @@
       <c r="G1" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -516,8 +558,23 @@
       <c r="G2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -528,14 +585,23 @@
         <v>5</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
       <c r="G3" t="b">
         <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -550,7 +616,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,12 +719,6 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>0.3</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
       <c r="I4" t="s">
         <v>19</v>
       </c>
@@ -721,12 +781,6 @@
       </c>
       <c r="F7">
         <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.3</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
       </c>
       <c r="I7" t="s">
         <v>19</v>
@@ -741,7 +795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A648B3E-8F90-4321-9FF6-70EB6010B277}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
